--- a/data/trans_orig/P57B2_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>171804</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>147625</v>
+        <v>149211</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>196617</v>
+        <v>194675</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3450186799003891</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2964610540791568</v>
+        <v>0.2996478528832548</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3948489213358716</v>
+        <v>0.3909490634774345</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>244</v>
@@ -762,19 +762,19 @@
         <v>196565</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>175104</v>
+        <v>174349</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>220044</v>
+        <v>217487</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3167075660193889</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2821286614604733</v>
+        <v>0.2809133154065545</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3545373527271943</v>
+        <v>0.3504171763683003</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>375</v>
@@ -783,19 +783,19 @@
         <v>368369</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>335847</v>
+        <v>338757</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>403717</v>
+        <v>403425</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3293104474754824</v>
+        <v>0.3293104474754825</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.300236711068002</v>
+        <v>0.3028377238603487</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3609101289305032</v>
+        <v>0.3606491395927775</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>176582</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>152816</v>
+        <v>155461</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>200496</v>
+        <v>201904</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3546140713969561</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3068863054473088</v>
+        <v>0.3121982594952695</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4026385961413726</v>
+        <v>0.4054646153482472</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>296</v>
@@ -833,19 +833,19 @@
         <v>214432</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>192398</v>
+        <v>193824</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>235699</v>
+        <v>237565</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3454954442310564</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3099938770482794</v>
+        <v>0.3122916292009553</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3797603472898622</v>
+        <v>0.3827661219021894</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>454</v>
@@ -854,19 +854,19 @@
         <v>391015</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>358602</v>
+        <v>360844</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>420420</v>
+        <v>426146</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3495546620243652</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3205789318822032</v>
+        <v>0.3225829594934969</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3758425307497996</v>
+        <v>0.380960656655645</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>116065</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>96265</v>
+        <v>97112</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>134758</v>
+        <v>135437</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2330829718296849</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1933201080558873</v>
+        <v>0.1950211473736266</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2706218958512838</v>
+        <v>0.2719849063636868</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>260</v>
@@ -904,19 +904,19 @@
         <v>174848</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>153556</v>
+        <v>155279</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>195750</v>
+        <v>193576</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.281716587405675</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.247411399667155</v>
+        <v>0.2501873981466929</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3153934349885639</v>
+        <v>0.3118907621520834</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>388</v>
@@ -925,19 +925,19 @@
         <v>290913</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>265138</v>
+        <v>264592</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>319370</v>
+        <v>319296</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2600670085702492</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2370249587636254</v>
+        <v>0.2365371768923631</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2855063294069068</v>
+        <v>0.2854400707013519</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>33505</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24274</v>
+        <v>22894</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46602</v>
+        <v>44797</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06728427687296989</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04874629677043254</v>
+        <v>0.04597527383408808</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09358581939779437</v>
+        <v>0.08996129508024696</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -975,19 +975,19 @@
         <v>34806</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24632</v>
+        <v>26240</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44397</v>
+        <v>44902</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05608040234387973</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03968700070004276</v>
+        <v>0.04227791175665795</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07153245279743776</v>
+        <v>0.07234702957773204</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>93</v>
@@ -996,19 +996,19 @@
         <v>68311</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>54441</v>
+        <v>55522</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84107</v>
+        <v>83868</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06106788192990304</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04866878812093518</v>
+        <v>0.04963516100035167</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07518880189350986</v>
+        <v>0.07497543895100743</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>468879</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>433218</v>
+        <v>433970</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>502113</v>
+        <v>503178</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4914229986662933</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4540468967975885</v>
+        <v>0.4548355749703003</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5262541084341866</v>
+        <v>0.5273705757585605</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>567</v>
@@ -1121,19 +1121,19 @@
         <v>445852</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>415645</v>
+        <v>417387</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>476915</v>
+        <v>475147</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4006622686357905</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3735166464766518</v>
+        <v>0.3750819597789956</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.428576399024623</v>
+        <v>0.4269881864184673</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>955</v>
@@ -1142,19 +1142,19 @@
         <v>914732</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>868691</v>
+        <v>869807</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>960166</v>
+        <v>958913</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4425591227465962</v>
+        <v>0.4425591227465961</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4202840708970234</v>
+        <v>0.4208239396641292</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4645409914303066</v>
+        <v>0.463934765073244</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>333798</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>300735</v>
+        <v>303680</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>366498</v>
+        <v>368012</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3498467815530201</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3151941703547281</v>
+        <v>0.318281143542303</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3841191900190348</v>
+        <v>0.3857054156019799</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>675</v>
@@ -1192,19 +1192,19 @@
         <v>456041</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>426338</v>
+        <v>426704</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>484715</v>
+        <v>486388</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4098188283928544</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3831259304760167</v>
+        <v>0.3834545451461146</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4355859121474009</v>
+        <v>0.4370895467023444</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1015</v>
@@ -1213,19 +1213,19 @@
         <v>789839</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>748584</v>
+        <v>747363</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>832475</v>
+        <v>830063</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3821346075152734</v>
+        <v>0.3821346075152733</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3621745968583683</v>
+        <v>0.3615838694322763</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4027624438277547</v>
+        <v>0.4015955565860502</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>132720</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>111948</v>
+        <v>114217</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>154997</v>
+        <v>161148</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1391009270274619</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1173299595330012</v>
+        <v>0.1197088892173928</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1624491856216881</v>
+        <v>0.1688956304075172</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>321</v>
@@ -1263,19 +1263,19 @@
         <v>189544</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>170417</v>
+        <v>169029</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>211789</v>
+        <v>209605</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.170332505966528</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1531445907039188</v>
+        <v>0.151897246659537</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1903227799097361</v>
+        <v>0.1883599559205474</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>472</v>
@@ -1284,19 +1284,19 @@
         <v>322264</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>293508</v>
+        <v>292884</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>351860</v>
+        <v>352727</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1559154237546462</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1420031239087415</v>
+        <v>0.1417013053471861</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1702344639396774</v>
+        <v>0.1706541564194335</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>18729</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12235</v>
+        <v>11067</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29317</v>
+        <v>28817</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01962929275322476</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01282350131762696</v>
+        <v>0.01159957280629926</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03072622313811695</v>
+        <v>0.03020286664368697</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>40</v>
@@ -1334,19 +1334,19 @@
         <v>21350</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15641</v>
+        <v>14938</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28895</v>
+        <v>28889</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01918639700482709</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01405566475376472</v>
+        <v>0.0134239806345455</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02596617612407326</v>
+        <v>0.02596097012768324</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>65</v>
@@ -1355,19 +1355,19 @@
         <v>40079</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>31008</v>
+        <v>30639</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>53169</v>
+        <v>51812</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01939084598348424</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01500207616774765</v>
+        <v>0.01482370378430481</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02572397276973263</v>
+        <v>0.02506747219638754</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>559008</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>525137</v>
+        <v>522979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>597685</v>
+        <v>591886</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5355730046150204</v>
+        <v>0.5355730046150203</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5031225268268499</v>
+        <v>0.5010551860910442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.572628714430642</v>
+        <v>0.5670734530325749</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>593</v>
@@ -1480,19 +1480,19 @@
         <v>466212</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>439084</v>
+        <v>437728</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>497432</v>
+        <v>495406</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4461412408711949</v>
+        <v>0.446141240871195</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.420180790530696</v>
+        <v>0.4188832429462929</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4760172845257419</v>
+        <v>0.4740783341567945</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1088</v>
@@ -1501,19 +1501,19 @@
         <v>1025220</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>982510</v>
+        <v>984343</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1070798</v>
+        <v>1075035</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4908307559617042</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4703831032425631</v>
+        <v>0.4712606024095783</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5126513321155045</v>
+        <v>0.5146799743284238</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>395937</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>358928</v>
+        <v>363856</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>429114</v>
+        <v>432049</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3793391042908099</v>
+        <v>0.3793391042908098</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3438814456329018</v>
+        <v>0.3486022783355512</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4111252384569631</v>
+        <v>0.413936577364057</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>699</v>
@@ -1551,19 +1551,19 @@
         <v>449149</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>420515</v>
+        <v>422091</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>476410</v>
+        <v>476273</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.4298122607804876</v>
+        <v>0.4298122607804875</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4024115520909234</v>
+        <v>0.4039196848647659</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4558999024726437</v>
+        <v>0.4557687546504166</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1121</v>
@@ -1572,19 +1572,19 @@
         <v>845087</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>800982</v>
+        <v>803571</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>884854</v>
+        <v>887904</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4045905633188089</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3834753403204291</v>
+        <v>0.3847149418270567</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4236294793994235</v>
+        <v>0.4250895188012956</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>76955</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60934</v>
+        <v>63071</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>95334</v>
+        <v>95857</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07372844271295187</v>
+        <v>0.07372844271295186</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05837933840948584</v>
+        <v>0.06042713812312499</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09133718189290614</v>
+        <v>0.09183889099419949</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>194</v>
@@ -1622,19 +1622,19 @@
         <v>115076</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>99399</v>
+        <v>98271</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>134404</v>
+        <v>132945</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1101219806488836</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09511931542799074</v>
+        <v>0.09404075532855537</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1286174575258869</v>
+        <v>0.1272218117659167</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>287</v>
@@ -1643,19 +1643,19 @@
         <v>192031</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>169221</v>
+        <v>170505</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>216756</v>
+        <v>216678</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09193594143083082</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08101586659531948</v>
+        <v>0.08163048288594038</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1037734297611183</v>
+        <v>0.1037359443315383</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>11856</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6855</v>
+        <v>6708</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19039</v>
+        <v>19750</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01135944838121788</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006567919767976162</v>
+        <v>0.006426975014746387</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0182408514375591</v>
+        <v>0.018921992015276</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -1693,19 +1693,19 @@
         <v>14551</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9234</v>
+        <v>9606</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21063</v>
+        <v>22004</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01392451769943374</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008836742872822354</v>
+        <v>0.009192369593881512</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02015592623034761</v>
+        <v>0.0210569156247904</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -1714,19 +1714,19 @@
         <v>26407</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19181</v>
+        <v>19031</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36135</v>
+        <v>36600</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01264273928865602</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009183248760312514</v>
+        <v>0.009111050329811739</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01729991771009352</v>
+        <v>0.01752258372681818</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>488946</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>451502</v>
+        <v>455254</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>522570</v>
+        <v>522067</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5029105217425067</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.464397875954168</v>
+        <v>0.468256313856099</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5374952251037217</v>
+        <v>0.5369778103769307</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>577</v>
@@ -1839,19 +1839,19 @@
         <v>448488</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>419537</v>
+        <v>419879</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>477236</v>
+        <v>472710</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4940470023169687</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4621552340466381</v>
+        <v>0.4625315716908419</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.525715444653166</v>
+        <v>0.5207295123353586</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1015</v>
@@ -1860,19 +1860,19 @@
         <v>937434</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>895440</v>
+        <v>896633</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>982364</v>
+        <v>981659</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4986306846428439</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4762936257964336</v>
+        <v>0.4769286277917509</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5225297204808672</v>
+        <v>0.522154585868306</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>372563</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>340656</v>
+        <v>339779</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>406218</v>
+        <v>405313</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3832036038919922</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3503855030786318</v>
+        <v>0.3494838503957594</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4178200207151291</v>
+        <v>0.4168890671794053</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>527</v>
@@ -1910,19 +1910,19 @@
         <v>340627</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>313801</v>
+        <v>315025</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>366684</v>
+        <v>366619</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3752288025442426</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3456783071344637</v>
+        <v>0.3470261895406431</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4039327915755676</v>
+        <v>0.4038613087367299</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>907</v>
@@ -1931,19 +1931,19 @@
         <v>713190</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>672802</v>
+        <v>671037</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>754162</v>
+        <v>756439</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3793528930138504</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3578702125807334</v>
+        <v>0.3569318021812938</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4011467771344254</v>
+        <v>0.4023578908794038</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>97867</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>81586</v>
+        <v>79858</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>118983</v>
+        <v>116530</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1006617844542492</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08391595677451087</v>
+        <v>0.08213854101589169</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1223811996317087</v>
+        <v>0.1198581759233012</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>196</v>
@@ -1981,19 +1981,19 @@
         <v>106171</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>91393</v>
+        <v>90745</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>125658</v>
+        <v>124098</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1169561674680489</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1006768501650046</v>
+        <v>0.09996275526758316</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1384229509199871</v>
+        <v>0.1367041632279814</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>313</v>
@@ -2002,19 +2002,19 @@
         <v>204038</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>181123</v>
+        <v>179432</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>231319</v>
+        <v>231093</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1085296867615025</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09634095853149957</v>
+        <v>0.09544179616736957</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1230408589920576</v>
+        <v>0.1229207255914217</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>12857</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4780</v>
+        <v>5602</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26611</v>
+        <v>27613</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01322408991125191</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00491663056878396</v>
+        <v>0.005762297560413922</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02737112286720228</v>
+        <v>0.02840121777576508</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2052,19 +2052,19 @@
         <v>12498</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7364</v>
+        <v>7593</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19484</v>
+        <v>19504</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01376802767073979</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008111717242785782</v>
+        <v>0.008364811890958669</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02146304629089285</v>
+        <v>0.02148560621695542</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -2073,19 +2073,19 @@
         <v>25355</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15796</v>
+        <v>16630</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39213</v>
+        <v>39801</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01348673558180307</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008401795269017324</v>
+        <v>0.008845485197675083</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02085774924696356</v>
+        <v>0.02117074551936977</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>1688637</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1623811</v>
+        <v>1622315</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1751792</v>
+        <v>1749116</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4869096854335263</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4682173766877331</v>
+        <v>0.4677859922534633</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5051202793838627</v>
+        <v>0.5043485716784406</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1981</v>
@@ -2198,19 +2198,19 @@
         <v>1557118</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1504361</v>
+        <v>1503410</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1614862</v>
+        <v>1612350</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4224167173364614</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4081047503165167</v>
+        <v>0.4078469814632414</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4380816577966492</v>
+        <v>0.4374001907175314</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3433</v>
@@ -2219,19 +2219,19 @@
         <v>3245754</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3162876</v>
+        <v>3157588</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3324626</v>
+        <v>3327921</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.4536799716955255</v>
+        <v>0.4536799716955254</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4420955177593466</v>
+        <v>0.4413563985088893</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4647043370275403</v>
+        <v>0.4651649201781878</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>1278880</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1217913</v>
+        <v>1216893</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1340051</v>
+        <v>1336202</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3687585298273931</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3511787635446451</v>
+        <v>0.3508846873520943</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3863967104034447</v>
+        <v>0.3852869306288876</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2197</v>
@@ -2269,19 +2269,19 @@
         <v>1460249</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1407066</v>
+        <v>1406440</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1512870</v>
+        <v>1514635</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3961381641300691</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3817106412402666</v>
+        <v>0.3815407486003283</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4104132817290537</v>
+        <v>0.4108918868148685</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3497</v>
@@ -2290,19 +2290,19 @@
         <v>2739130</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2660880</v>
+        <v>2649953</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2817113</v>
+        <v>2814287</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3828657641038457</v>
+        <v>0.3828657641038456</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3719283729407272</v>
+        <v>0.3704009025365249</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3937659507157964</v>
+        <v>0.393371033487343</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>423606</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>386455</v>
+        <v>388781</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>462987</v>
+        <v>462718</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1221445770777626</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1114324071142269</v>
+        <v>0.112103053776748</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1334998290211108</v>
+        <v>0.1334222851930413</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>971</v>
@@ -2340,19 +2340,19 @@
         <v>585639</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>551180</v>
+        <v>550915</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>624885</v>
+        <v>625535</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1588728522957519</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1495248821731933</v>
+        <v>0.1494529194232664</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1695195825290362</v>
+        <v>0.1696959553200204</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1460</v>
@@ -2361,19 +2361,19 @@
         <v>1009245</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>958511</v>
+        <v>961518</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1069298</v>
+        <v>1072680</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1410686568277817</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1339772468959512</v>
+        <v>0.1343975619457624</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1494626108352558</v>
+        <v>0.1499353914811948</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>76947</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>60675</v>
+        <v>61926</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>96400</v>
+        <v>100584</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02218720766131792</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01749535373922705</v>
+        <v>0.01785616680874397</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02779646595103554</v>
+        <v>0.02900288376284238</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>140</v>
@@ -2411,19 +2411,19 @@
         <v>83206</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>69402</v>
+        <v>69169</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>97725</v>
+        <v>98874</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.0225722662377176</v>
+        <v>0.02257226623771761</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01882752564894925</v>
+        <v>0.01876423044260606</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02651102378432368</v>
+        <v>0.0268225820364374</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>227</v>
@@ -2432,19 +2432,19 @@
         <v>160153</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>138159</v>
+        <v>139983</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>182344</v>
+        <v>186689</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.02238560737284718</v>
+        <v>0.02238560737284719</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01931130553435289</v>
+        <v>0.01956627619411691</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02548739570093995</v>
+        <v>0.02609478778076562</v>
       </c>
     </row>
     <row r="28">
